--- a/scripts/scripts/realtime_output/multi_company_sep19/SLDB_hourly_data.xlsx
+++ b/scripts/scripts/realtime_output/multi_company_sep19/SLDB_hourly_data.xlsx
@@ -7,9 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hour_10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Hour_11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Hour_12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hour_12_2025-08-06" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hour_6_2025-08-07" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hour_7_2025-08-07" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hour_9_2025-08-07" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Hour_10_2025-08-07" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hour_11_2025-08-07" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Hour_12_2025-08-07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hour_6_2025-08-08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Hour_7_2025-08-08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Hour_8_2025-08-08" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -577,20 +584,20 @@
         <v>4.81</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.938955</v>
+        <v>0.933272</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.001317</v>
+        <v>0.001391</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.002906</v>
+        <v>0.002957</v>
       </c>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n">
-        <v>2.3e-05</v>
+        <v>2.1e-05</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>179.9535</v>
+        <v>182.3906</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -599,16 +606,16 @@
       </c>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n">
-        <v>6.74</v>
+        <v>6.515</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.282665394103272</v>
+        <v>4.056498630839847</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.5273346058967272</v>
+        <v>0.7535013691601531</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>-0.5273346058967272</v>
+        <v>-0.7535013691601531</v>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
@@ -616,14 +623,14 @@
         </is>
       </c>
       <c r="R2" s="3" t="n">
-        <v>45874.41739950232</v>
+        <v>45875.5395253588</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
@@ -641,84 +648,77 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C5 Equity</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Call</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.8496860000000001</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.006545</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.005713</v>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n">
-        <v>4.7e-05</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>110.0227</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.793581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>105.539</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>2.298523932548048</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>-0.298523932548048</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.298523932548048</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="M3" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.096589435892501</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.2465894358925005</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2465894358925005</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>SLDB_5.0_Call</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>45874.41739950232</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>25</v>
+      <c r="R3" s="1" t="n">
+        <v>45875.5395253588</v>
+      </c>
+      <c r="S3" t="n">
+        <v>12</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -736,23 +736,23 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.429146</v>
+        <v>0.402953</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.01126</v>
+        <v>0.012391</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0094</v>
+        <v>0.008966999999999999</v>
       </c>
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n">
-        <v>2.8e-05</v>
+        <v>2.6e-05</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>110.2877</v>
+        <v>119.9041</v>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
@@ -761,16 +761,16 @@
       </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n">
-        <v>6.74</v>
+        <v>6.515</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.128086493359967</v>
+        <v>0.9873604013008989</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-0.5280864933599675</v>
+        <v>-0.4873604013008989</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.5280864933599675</v>
+        <v>0.4873604013008989</v>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
@@ -778,14 +778,14 @@
         </is>
       </c>
       <c r="R4" s="5" t="n">
-        <v>45874.41739950232</v>
+        <v>45875.5395253588</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-06</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -803,6 +803,528 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>93.26631</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.4539489780901144</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>-0.3039489780901143</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.3039489780901143</v>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>45875.5395253588</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>243.3721</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2099925655807962</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.05999256558079624</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.05999256558079624</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45875.5395253588</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-06</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>161.6514</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.041651557031235</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.3516515570312353</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.3516515570312353</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45877.35848956167</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.793581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104.9521</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.358300325911772</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.5083003259117715</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5083003259117715</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45877.35848956167</v>
+      </c>
+      <c r="S3" t="n">
+        <v>8</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>0.396051</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>0.01179</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0.008517</v>
+      </c>
+      <c r="H4" s="4" t="n"/>
+      <c r="I4" s="4" t="n">
+        <v>2.4e-05</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>106.1862</v>
+      </c>
+      <c r="K4" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L4" s="4" t="n"/>
+      <c r="M4" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.376221632839918</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>-0.8762216328399184</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>0.8762216328399184</v>
+      </c>
+      <c r="Q4" s="4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>45877.35848956167</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="U4" s="4" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="V4" s="4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C10 Equity</t>
@@ -817,22 +1339,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.288816</v>
+        <v>0.147367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007993999999999999</v>
+        <v>0.006453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009264</v>
+        <v>0.005192</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>140.1522</v>
+        <v>100.0762</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -840,16 +1362,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6.74</v>
+        <v>6.42</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5375965544074897</v>
+        <v>0.8205443380662523</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.08759655440748965</v>
+        <v>-0.6705443380662522</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08759655440748965</v>
+        <v>0.6705443380662522</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -857,14 +1379,14 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>45874.41739950232</v>
+        <v>45877.35848956167</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -872,6 +1394,7 @@
           <t>No_Trade</t>
         </is>
       </c>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -906,7 +1429,7 @@
         <v>1e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>229.9482</v>
+        <v>551.691</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -914,16 +1437,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6.74</v>
+        <v>6.42</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2558053021275265</v>
+        <v>0.5019444732940079</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1058053021275265</v>
+        <v>-0.3519444732940079</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1058053021275265</v>
+        <v>0.3519444732940079</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -931,14 +1454,14 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>45874.41739950232</v>
+        <v>45877.35848956167</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -946,6 +1469,7 @@
           <t>No_Trade</t>
         </is>
       </c>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
         <v>0</v>
       </c>
@@ -1087,246 +1611,225 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C2.5 Equity</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>2.5</v>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Call</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" t="n">
         <v>4.81</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0.93879</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0.001348</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0.002871</v>
-      </c>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n">
+      <c r="E2" t="n">
+        <v>0.945283</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001411</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002465</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.3e-05</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>158.0562</v>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
+      <c r="J2" t="n">
+        <v>159.4825</v>
+      </c>
+      <c r="K2" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="L2" s="2" t="n"/>
-      <c r="M2" s="2" t="n">
-        <v>6.635</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>4.175378462752527</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0.6346215372474724</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>-0.6346215372474724</v>
-      </c>
-      <c r="Q2" s="2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.974243551740051</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.8357564482599487</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.8357564482599487</v>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>SLDB_2.5_Call</t>
         </is>
       </c>
-      <c r="R2" s="3" t="n">
-        <v>45874.45981034722</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="T2" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="U2" s="2" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="V2" s="2" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>25</v>
+      <c r="R2" s="1" t="n">
+        <v>45876.29071824074</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C5 Equity</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Call</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.8496860000000001</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.006545</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.005713</v>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n">
-        <v>4.7e-05</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>110.0498</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.793581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>108.7321</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n">
-        <v>6.635</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>2.115444019636129</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>-0.1154440196361293</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.1154440196361293</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="M3" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.001502518306235</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.1515025183062346</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.1515025183062346</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>SLDB_5.0_Call</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>45874.45981034722</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="V3" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>25</v>
+      <c r="R3" s="1" t="n">
+        <v>45876.29071824074</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C7.5 Equity</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" t="n">
         <v>7.5</v>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Call</t>
         </is>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>0.429146</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>0.01126</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="H4" s="4" t="n"/>
-      <c r="I4" s="4" t="n">
-        <v>2.8e-05</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>109.2606</v>
-      </c>
-      <c r="K4" s="4" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>122.6743</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="L4" s="4" t="n"/>
-      <c r="M4" s="4" t="n">
-        <v>6.635</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.9437697263256788</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>-0.3437697263256788</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.3437697263256788</v>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>6.435</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.8961882674388904</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.2461882674388903</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2461882674388903</v>
+      </c>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>SLDB_7.5_Call</t>
         </is>
       </c>
-      <c r="R4" s="5" t="n">
-        <v>45874.45981034722</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T4" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="U4" s="4" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="V4" s="4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>25</v>
+      <c r="R4" s="1" t="n">
+        <v>45876.29071824074</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1344,22 +1847,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.288816</v>
+        <v>0.147367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007993999999999999</v>
+        <v>0.006453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009264</v>
+        <v>0.005192</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>143.6673</v>
+        <v>127.6746</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1367,16 +1870,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6.635</v>
+        <v>6.435</v>
       </c>
       <c r="N5" t="n">
-        <v>0.4455765877390376</v>
+        <v>0.3841194941613084</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004423412260962434</v>
+        <v>-0.2341194941613084</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.004423412260962434</v>
+        <v>0.2341194941613084</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1384,14 +1887,14 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>45874.45981034722</v>
+        <v>45876.29071824074</v>
       </c>
       <c r="S5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1433,7 +1936,7 @@
         <v>1e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>234.2093</v>
+        <v>223.6897</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1441,16 +1944,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6.635</v>
+        <v>6.435</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2325514247201718</v>
+        <v>0.1633093569052809</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0825514247201718</v>
+        <v>-0.0133093569052809</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0825514247201718</v>
+        <v>0.0133093569052809</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1458,14 +1961,14 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>45874.45981034722</v>
+        <v>45876.29071824074</v>
       </c>
       <c r="S6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -1614,6 +2117,2030 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.942063</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001499</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002496</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>135.1205</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.755209722886517</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.054790277113482</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.054790277113482</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45876.33304987269</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.761041</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006479</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104.8616</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.66189016555906</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1881098344409404</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1881098344409404</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45876.33304987269</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>115.8611</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6036365863855272</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.04636341361447283</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.04636341361447283</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>45876.33304987269</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>118.5341</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2472444447262383</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.09724444472623833</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.09724444472623833</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>45876.33304987269</v>
+      </c>
+      <c r="S5" t="n">
+        <v>7</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>235.3964</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.225</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1170076594142988</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.03299234058570118</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.03299234058570118</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45876.33304987269</v>
+      </c>
+      <c r="S6" t="n">
+        <v>7</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.943909</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001487</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002435</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>118.7944</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.755292944059855</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.054707055940145</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.054707055940145</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45876.37528211805</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.761856</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006493</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006678</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>103.0323</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.658968584400602</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.1910314155993977</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.1910314155993977</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45876.37528211805</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>117.3778</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6200301717000937</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.02996982829990635</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.02996982829990635</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>45876.37528211805</v>
+      </c>
+      <c r="S4" t="n">
+        <v>9</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>120.1846</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2423443212984724</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.09234432129847245</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.09234432129847245</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>45876.37528211805</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>237.6609</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.235</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1042690739143023</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.04573092608569766</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.04573092608569766</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45876.37528211805</v>
+      </c>
+      <c r="S6" t="n">
+        <v>9</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.942058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001499</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002493</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.3e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>135.3357</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.744271617186651</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.065728382813348</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.065728382813348</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45876.41752350694</v>
+      </c>
+      <c r="S2" t="n">
+        <v>10</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.757837</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00642</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006707</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>106.2675</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.764110061295256</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.08588993870474382</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.08588993870474382</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45876.41752350694</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>115.0557</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.7088830341706528</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.05888303417065277</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.05888303417065277</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>45876.41752350694</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>103.2655</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.2663242325796809</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1163242325796809</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1163242325796809</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>45876.41752350694</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>234.8681</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09803908639653096</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05196091360346904</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.05196091360346904</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45876.41752350694</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.936974</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001526</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.002648</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.2e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>162.5696</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.72714756684706</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.08285243315294</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.08285243315294</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45876.45986929398</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.754756</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006362</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006727</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.4e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>108.8231</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.829512337929304</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02048766207069641</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.02048766207069641</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45876.45986929398</v>
+      </c>
+      <c r="S3" t="n">
+        <v>11</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>118.0297</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.814179123600502</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.164179123600502</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.164179123600502</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>45876.45986929398</v>
+      </c>
+      <c r="S4" t="n">
+        <v>11</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>120.3497</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.3541129667873613</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.2041129667873613</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.2041129667873613</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="n">
+        <v>45876.45986929398</v>
+      </c>
+      <c r="S5" t="n">
+        <v>11</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>237.5737</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.1805</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1553438331662145</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.005343833166214507</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.005343833166214507</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45876.45986929398</v>
+      </c>
+      <c r="S6" t="n">
+        <v>11</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C2.5 Equity</t>
@@ -1631,20 +4158,20 @@
         <v>4.81</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.93896</v>
+        <v>0.935416</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.001347</v>
+        <v>0.001533</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.002863</v>
+        <v>0.002692</v>
       </c>
       <c r="H2" s="2" t="n"/>
       <c r="I2" s="2" t="n">
-        <v>2.3e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>157.031</v>
+        <v>169.2927</v>
       </c>
       <c r="K2" s="2" t="inlineStr">
         <is>
@@ -1653,16 +4180,16 @@
       </c>
       <c r="L2" s="2" t="n"/>
       <c r="M2" s="2" t="n">
-        <v>6.6514</v>
+        <v>6.2</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.19180920193571</v>
+        <v>3.74635819853835</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.6181907980642896</v>
+        <v>1.06364180146165</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>-0.6181907980642896</v>
+        <v>-1.06364180146165</v>
       </c>
       <c r="Q2" s="2" t="inlineStr">
         <is>
@@ -1670,14 +4197,14 @@
         </is>
       </c>
       <c r="R2" s="3" t="n">
-        <v>45874.50240305425</v>
+        <v>45876.5022972338</v>
       </c>
       <c r="S2" s="2" t="n">
         <v>12</v>
       </c>
       <c r="T2" s="2" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-07</t>
         </is>
       </c>
       <c r="U2" s="2" t="inlineStr">
@@ -1695,84 +4222,1003 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>SLDB US 09/19/25 C5 Equity</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Call</t>
         </is>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.8496860000000001</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.006545</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.005713</v>
-      </c>
-      <c r="H3" s="4" t="n"/>
-      <c r="I3" s="4" t="n">
-        <v>4.7e-05</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>114.0016</v>
-      </c>
-      <c r="K3" s="4" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.760037</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00669</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006654</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>103.6793</v>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>2025-09-19</t>
         </is>
       </c>
-      <c r="L3" s="4" t="n"/>
-      <c r="M3" s="4" t="n">
-        <v>6.6514</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>2.145388134659404</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>-0.1453881346594041</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.1453881346594041</v>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
+      <c r="M3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.845230417562819</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.004769582437181175</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.004769582437181175</v>
+      </c>
+      <c r="Q3" t="inlineStr">
         <is>
           <t>SLDB_5.0_Call</t>
         </is>
       </c>
-      <c r="R3" s="5" t="n">
-        <v>45874.50240305425</v>
-      </c>
-      <c r="S3" s="4" t="n">
+      <c r="R3" s="1" t="n">
+        <v>45876.5022972338</v>
+      </c>
+      <c r="S3" t="n">
         <v>12</v>
       </c>
-      <c r="T3" s="4" t="inlineStr">
-        <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="U3" s="4" t="inlineStr">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>117.1546</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.824458437168019</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.174458437168019</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.174458437168019</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>SLDB_7.5_Call</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="n">
+        <v>45876.5022972338</v>
+      </c>
+      <c r="S4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>120.1235</v>
+      </c>
+      <c r="K5" s="4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.3600629758016299</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>-0.2100629758016299</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.2100629758016299</v>
+      </c>
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>SLDB_10.0_Call</t>
+        </is>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>45876.5022972338</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="T5" s="4" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U5" s="4" t="inlineStr">
         <is>
           <t>Entered</t>
         </is>
       </c>
-      <c r="V3" s="4" t="inlineStr">
+      <c r="V5" s="4" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="W3" s="4" t="n">
+      <c r="W5" s="4" t="n">
         <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>237.7384</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.15860133635945</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.008601336359449985</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.008601336359449985</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>SLDB_12.5_Call</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="n">
+        <v>45876.5022972338</v>
+      </c>
+      <c r="S6" t="n">
+        <v>12</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2025-08-07</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.964919</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00127</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.001665</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.6e-05</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>45877.27385648148</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.758331</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006659</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006663</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.5e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>96.93201000000001</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>45877.27385648148</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C7.5 Equity</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.431707</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.010072</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.008806</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.5e-05</v>
+      </c>
+      <c r="J4" t="n">
+        <v>138.7153</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>45877.27385648148</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C10 Equity</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.147367</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.006453</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005192</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>118.9504</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>45877.27385648148</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C12.5 Equity</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.122644</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.004867</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.005548</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>236.2193</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>45877.27385648148</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Option Ticker</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Option Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PX_LAST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DELTA</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>GAMMA</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>VEGA</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Implied Volatility</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Expiration</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Contract Size</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Heston_Price</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Market_vs_Heston</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Heston_vs_Market</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Option_ID</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Trade_Status</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Position_Size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C2.5 Equity</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>171.1297</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.128231206283564</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.438231206283564</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.438231206283564</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>SLDB_2.5_Call</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="n">
+        <v>45877.31604834491</v>
+      </c>
+      <c r="S2" t="n">
+        <v>7</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SLDB US 09/19/25 C5 Equity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Call</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.793581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.006748</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006449</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.9e-05</v>
+      </c>
+      <c r="J3" t="n">
+        <v>104.49</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>6.515</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.420746460623226</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.570746460623226</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.570746460623226</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>SLDB_5.0_Call</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>45877.31604834491</v>
+      </c>
+      <c r="S3" t="n">
+        <v>7</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>No_Trade</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1790,23 +5236,23 @@
         </is>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.429146</v>
+        <v>0.396051</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.01126</v>
+        <v>0.01179</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.0094</v>
+        <v>0.008517</v>
       </c>
       <c r="H4" s="4" t="n"/>
       <c r="I4" s="4" t="n">
-        <v>2.8e-05</v>
+        <v>2.4e-05</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>111.1888</v>
+        <v>97.72246</v>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
@@ -1815,16 +5261,16 @@
       </c>
       <c r="L4" s="4" t="n"/>
       <c r="M4" s="4" t="n">
-        <v>6.6514</v>
+        <v>6.515</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.9865809702429283</v>
+        <v>1.418857596066131</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>-0.3865809702429284</v>
+        <v>-0.9188575960661307</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.3865809702429284</v>
+        <v>0.9188575960661307</v>
       </c>
       <c r="Q4" s="4" t="inlineStr">
         <is>
@@ -1832,14 +5278,14 @@
         </is>
       </c>
       <c r="R4" s="5" t="n">
-        <v>45874.50240305425</v>
+        <v>45877.31604834491</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T4" s="4" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="U4" s="4" t="inlineStr">
@@ -1871,22 +5317,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.288816</v>
+        <v>0.147367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007993999999999999</v>
+        <v>0.006453</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009264</v>
+        <v>0.005192</v>
       </c>
       <c r="I5" t="n">
-        <v>2.3e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>143.1691</v>
+        <v>96.77598999999999</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -1894,16 +5340,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>6.6514</v>
+        <v>6.515</v>
       </c>
       <c r="N5" t="n">
-        <v>0.479698228424672</v>
+        <v>0.8499661367668621</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.02969822842467201</v>
+        <v>-0.699966136766862</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02969822842467201</v>
+        <v>0.699966136766862</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -1911,14 +5357,14 @@
         </is>
       </c>
       <c r="R5" s="1" t="n">
-        <v>45874.50240305425</v>
+        <v>45877.31604834491</v>
       </c>
       <c r="S5" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
@@ -1926,7 +5372,6 @@
           <t>No_Trade</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -1961,7 +5406,7 @@
         <v>1e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>236.421</v>
+        <v>540.1597</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -1969,16 +5414,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>6.6514</v>
+        <v>6.515</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2557956738994501</v>
+        <v>0.5226963507187281</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1057956738994501</v>
+        <v>-0.3726963507187281</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1057956738994501</v>
+        <v>0.3726963507187281</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -1986,14 +5431,14 @@
         </is>
       </c>
       <c r="R6" s="1" t="n">
-        <v>45874.50240305425</v>
+        <v>45877.31604834491</v>
       </c>
       <c r="S6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
@@ -2001,7 +5446,6 @@
           <t>No_Trade</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
         <v>0</v>
       </c>
